--- a/BackTest/2019-10-18 BackTest SALT.xlsx
+++ b/BackTest/2019-10-18 BackTest SALT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>4.099999999999994</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>11.11111111111129</v>
+      </c>
       <c r="L12" t="n">
         <v>99.52000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>4.099999999999994</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>99.56000000000002</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>4.099999999999994</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>29.03225806451636</v>
+      </c>
       <c r="L14" t="n">
         <v>99.61000000000003</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>5.5</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-21.95121951219529</v>
+      </c>
       <c r="L15" t="n">
         <v>99.56000000000003</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>5.599999999999994</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-38.88888888888911</v>
+      </c>
       <c r="L16" t="n">
         <v>99.48000000000003</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>6.799999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-4.166666666666728</v>
+      </c>
       <c r="L17" t="n">
         <v>99.46000000000004</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>8.599999999999994</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-29.23076923076932</v>
+      </c>
       <c r="L18" t="n">
         <v>99.26000000000003</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>10.19999999999999</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>5.405405405405296</v>
+      </c>
       <c r="L19" t="n">
         <v>99.23000000000003</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>11.69999999999999</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-9.302325581395488</v>
+      </c>
       <c r="L20" t="n">
         <v>99.12000000000003</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>12.39999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-13.25301204819288</v>
+      </c>
       <c r="L21" t="n">
         <v>99.11000000000003</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>12.99999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-19.10112359550567</v>
+      </c>
       <c r="L22" t="n">
         <v>98.94000000000003</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>-10.39999999999999</v>
+        <v>-19.10112359550567</v>
       </c>
       <c r="L23" t="n">
         <v>98.77000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>-10.40000000000009</v>
+        <v>-5.263157894736921</v>
       </c>
       <c r="L24" t="n">
         <v>98.59000000000002</v>
@@ -1515,7 +1537,7 @@
         <v>13.2</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.557377049180303</v>
+        <v>-5.263157894736723</v>
       </c>
       <c r="L25" t="n">
         <v>98.56000000000002</v>
@@ -1564,7 +1586,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.66666666666671</v>
+        <v>-27.27272727272719</v>
       </c>
       <c r="L26" t="n">
         <v>98.50000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-15.51724137931031</v>
+        <v>4.000000000000045</v>
       </c>
       <c r="L27" t="n">
         <v>98.34</v>
@@ -1662,7 +1684,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-19.00826446280988</v>
+        <v>-48.71794871794825</v>
       </c>
       <c r="L28" t="n">
         <v>98.31000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>14.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.51612903225815</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>98.16</v>
@@ -1760,7 +1782,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.474576271186432</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L30" t="n">
         <v>98.16999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>4.687499999999951</v>
+        <v>44.82758620689615</v>
       </c>
       <c r="L31" t="n">
         <v>98.23999999999998</v>
@@ -1860,7 +1882,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.389830508474621</v>
+        <v>44.82758620689615</v>
       </c>
       <c r="L32" t="n">
         <v>98.36999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.389830508474621</v>
+        <v>50</v>
       </c>
       <c r="L33" t="n">
         <v>98.49999999999997</v>
@@ -1962,7 +1984,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.389830508474621</v>
+        <v>48.14814814814799</v>
       </c>
       <c r="L34" t="n">
         <v>98.63999999999997</v>
@@ -2013,7 +2035,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>9.61538461538461</v>
+        <v>60</v>
       </c>
       <c r="L35" t="n">
         <v>98.76999999999995</v>
@@ -2064,7 +2086,7 @@
         <v>16</v>
       </c>
       <c r="K36" t="n">
-        <v>9.61538461538461</v>
+        <v>58.33333333333318</v>
       </c>
       <c r="L36" t="n">
         <v>98.92999999999995</v>
@@ -2115,7 +2137,7 @@
         <v>16</v>
       </c>
       <c r="K37" t="n">
-        <v>-2.173913043478291</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>99.06999999999994</v>
@@ -2166,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="K38" t="n">
-        <v>21.62162162162153</v>
+        <v>100</v>
       </c>
       <c r="L38" t="n">
         <v>99.25999999999992</v>
@@ -2217,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
         <v>99.40999999999991</v>
@@ -2268,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="K40" t="n">
-        <v>34.88372093023246</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
         <v>99.54999999999991</v>
@@ -2319,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="K41" t="n">
-        <v>22.22222222222209</v>
+        <v>100</v>
       </c>
       <c r="L41" t="n">
         <v>99.5599999999999</v>
@@ -2370,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="K42" t="n">
-        <v>46.66666666666616</v>
+        <v>100</v>
       </c>
       <c r="L42" t="n">
         <v>99.56999999999989</v>
@@ -2421,7 +2443,7 @@
         <v>16</v>
       </c>
       <c r="K43" t="n">
-        <v>46.66666666666616</v>
+        <v>100</v>
       </c>
       <c r="L43" t="n">
         <v>99.57999999999988</v>
@@ -2472,7 +2494,7 @@
         <v>16.2</v>
       </c>
       <c r="K44" t="n">
-        <v>54.8387096774193</v>
+        <v>100</v>
       </c>
       <c r="L44" t="n">
         <v>99.60999999999987</v>
@@ -2523,7 +2545,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>54.8387096774193</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>99.64999999999989</v>
@@ -2574,7 +2596,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>65.51724137931041</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>99.67999999999989</v>
@@ -2625,7 +2647,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>64.28571428571425</v>
+        <v>100</v>
       </c>
       <c r="L47" t="n">
         <v>99.71999999999989</v>
